--- a/invitados15.xlsx
+++ b/invitados15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\kmaranon\Documents\15años2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFA4A57B-AFD3-4811-8529-00227BF4DF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3233F26E-11BD-4D91-AD32-3E4DF1B3DC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4020" windowWidth="19440" windowHeight="14880" xr2:uid="{7CA79A01-CA55-4061-B04C-738A112B7D99}"/>
   </bookViews>
@@ -50,31 +50,31 @@
     <t>Mesa</t>
   </si>
   <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>Marañon</t>
-  </si>
-  <si>
-    <t>Ortiz</t>
-  </si>
-  <si>
-    <t>Roosmhan</t>
-  </si>
-  <si>
-    <t>Echeverria</t>
-  </si>
-  <si>
-    <t>Navarro</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Perez</t>
-  </si>
-  <si>
-    <t>Hernandez</t>
+    <t>KEVIN</t>
+  </si>
+  <si>
+    <t>MARAÑON</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>ROOSHMAN</t>
+  </si>
+  <si>
+    <t>ECHEVERRIA</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>JUAN</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/invitados15.xlsx
+++ b/invitados15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\kmaranon\Documents\15años2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3233F26E-11BD-4D91-AD32-3E4DF1B3DC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74830B04-7602-4BD6-B855-365893688E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4020" windowWidth="19440" windowHeight="14880" xr2:uid="{7CA79A01-CA55-4061-B04C-738A112B7D99}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>ORTIZ</t>
   </si>
   <si>
-    <t>ROOSHMAN</t>
-  </si>
-  <si>
     <t>ECHEVERRIA</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>ROOSMHAN</t>
   </si>
 </sst>
 </file>
@@ -449,12 +449,12 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
@@ -490,13 +490,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -504,13 +504,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
       </c>
       <c r="D4">
         <v>3</v>

--- a/invitados15.xlsx
+++ b/invitados15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\kmaranon\Documents\15años2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74830B04-7602-4BD6-B855-365893688E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BC437C-18DE-441F-9636-F93684510C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4020" windowWidth="19440" windowHeight="14880" xr2:uid="{7CA79A01-CA55-4061-B04C-738A112B7D99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7CA79A01-CA55-4061-B04C-738A112B7D99}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="139">
   <si>
     <t>Nombre</t>
   </si>
@@ -50,31 +50,409 @@
     <t>Mesa</t>
   </si>
   <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LILIANA</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>CANO</t>
+  </si>
+  <si>
+    <t>HECTOR</t>
+  </si>
+  <si>
+    <t>KARINA</t>
+  </si>
+  <si>
+    <t>GABRIELA</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>ALI</t>
+  </si>
+  <si>
+    <t>Boletos</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>ESPARZA</t>
+  </si>
+  <si>
+    <t>VIRGINIA</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>ARTURO</t>
+  </si>
+  <si>
+    <t>PRADO</t>
+  </si>
+  <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>GALAN</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>MONDRAGON</t>
+  </si>
+  <si>
+    <t>YAIR</t>
+  </si>
+  <si>
+    <t>VIERA</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>VICTORIA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>DIANA</t>
+  </si>
+  <si>
+    <t>SILVA</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>FERNANDA</t>
+  </si>
+  <si>
+    <t>ALEXA</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>XIMENA</t>
+  </si>
+  <si>
+    <t>PERCASTEGUI</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MATEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANTIAGO </t>
+  </si>
+  <si>
+    <t>LARRAÑAGA</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>GASPAR</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>REBE</t>
+  </si>
+  <si>
+    <t>NUÑEZ</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>ARELY</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>MALDONADO</t>
+  </si>
+  <si>
+    <t>ROSARELIA</t>
+  </si>
+  <si>
+    <t>NITZIE</t>
+  </si>
+  <si>
+    <t>CARREON</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>VIRGEN</t>
+  </si>
+  <si>
+    <t>COBIAN</t>
+  </si>
+  <si>
+    <t>ALEJANDRA</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>SARAHI</t>
+  </si>
+  <si>
+    <t>TORAL</t>
+  </si>
+  <si>
+    <t>BRENDA</t>
+  </si>
+  <si>
+    <t>FUERTES</t>
+  </si>
+  <si>
+    <t>MARCELA</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>BETANCOURT</t>
+  </si>
+  <si>
+    <t>TANIA</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>CITLALI</t>
+  </si>
+  <si>
+    <t>GANBOA</t>
+  </si>
+  <si>
+    <t>LEONOR</t>
+  </si>
+  <si>
+    <t>LUZMA</t>
+  </si>
+  <si>
+    <t>MIRIAM</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>LIZETH</t>
+  </si>
+  <si>
+    <t>ELIZONDO</t>
+  </si>
+  <si>
+    <t>NAHELI</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>ADRIANA</t>
+  </si>
+  <si>
+    <t>AIDE</t>
+  </si>
+  <si>
+    <t>GARRIDO</t>
+  </si>
+  <si>
+    <t>ALICE</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>YAHIR</t>
+  </si>
+  <si>
+    <t>NAHUM</t>
+  </si>
+  <si>
     <t>KEVIN</t>
   </si>
   <si>
     <t>MARAÑON</t>
   </si>
   <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>ECHEVERRIA</t>
-  </si>
-  <si>
-    <t>NAVARRO</t>
-  </si>
-  <si>
-    <t>JUAN</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>ROOSMHAN</t>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>BENAVIDES</t>
+  </si>
+  <si>
+    <t>YOLANDA</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>NAIM</t>
+  </si>
+  <si>
+    <t>LILIA</t>
+  </si>
+  <si>
+    <t>CARMEN</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>KAREN</t>
+  </si>
+  <si>
+    <t>MARTHA</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>ISIDRA</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>JOSUE</t>
+  </si>
+  <si>
+    <t>ROSALES</t>
+  </si>
+  <si>
+    <t>LOURDES</t>
+  </si>
+  <si>
+    <t>TINA</t>
+  </si>
+  <si>
+    <t>CASTILLEJOS</t>
+  </si>
+  <si>
+    <t>CARNEDAS</t>
+  </si>
+  <si>
+    <t>VERO</t>
+  </si>
+  <si>
+    <t>JEANETTE</t>
+  </si>
+  <si>
+    <t>BALBUENA</t>
+  </si>
+  <si>
+    <t>WENDY</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>PELEGRINA</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>FRANCISCO</t>
+  </si>
+  <si>
+    <t>SAMANTA</t>
+  </si>
+  <si>
+    <t>MILTION</t>
+  </si>
+  <si>
+    <t>HENESTROSA</t>
+  </si>
+  <si>
+    <t>BIBIANO</t>
+  </si>
+  <si>
+    <t>ALAN</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>PRIMA</t>
+  </si>
+  <si>
+    <t>TOMATLAN</t>
+  </si>
+  <si>
+    <t>YUNUEM</t>
+  </si>
+  <si>
+    <t>PRINCIPAL</t>
+  </si>
+  <si>
+    <t>ERNESTO</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>GUIDO</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
   </si>
 </sst>
 </file>
@@ -446,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBECFB97-5736-4D56-9A14-6955AF09420A}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,10 +835,11 @@
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,46 +852,1291 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57">
+        <v>11</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58">
+        <v>11</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59">
+        <v>11</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61">
+        <v>12</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62">
+        <v>12</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63">
+        <v>12</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65">
+        <v>13</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66">
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67">
+        <v>13</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68">
+        <v>13</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69">
+        <v>13</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70">
+        <v>13</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71">
+        <v>14</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72">
+        <v>14</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73">
+        <v>14</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74">
+        <v>14</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75">
+        <v>15</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76">
+        <v>15</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77">
+        <v>15</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
+      <c r="B78" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78">
+        <v>15</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>16</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" t="s">
+        <v>119</v>
+      </c>
+      <c r="D80">
+        <v>16</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <v>16</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82">
+        <v>16</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83">
+        <v>17</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84">
+        <v>17</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>124</v>
+      </c>
+      <c r="D85">
+        <v>17</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>125</v>
+      </c>
+      <c r="D86">
+        <v>17</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" t="s">
+        <v>127</v>
+      </c>
+      <c r="D87">
+        <v>17</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" t="s">
+        <v>128</v>
+      </c>
+      <c r="D88">
+        <v>18</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" t="s">
+        <v>130</v>
+      </c>
+      <c r="D89">
+        <v>18</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90">
+        <v>18</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91">
+        <v>18</v>
+      </c>
+      <c r="E91">
         <v>3</v>
       </c>
     </row>
